--- a/data/144/SNMO/Work Stoppages.xlsx
+++ b/data/144/SNMO/Work Stoppages.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Work Stoppages" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,20 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1965</v>
@@ -553,9 +541,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Employees</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>248</v>
@@ -726,9 +716,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>8</v>
